--- a/biology/Botanique/Beira_Interior/Beira_Interior.xlsx
+++ b/biology/Botanique/Beira_Interior/Beira_Interior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Beira Interior est une appellation d'origine (DOC) portugaise produite dans les vignobles de la Beira intérieure, sur les terroirs de Figueira de Castelo Rodrigo, Cova da Beira et Pinhel. Ces vins sont rouges, rosés, blancs, clairet, paillés et mousseux. 
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La production de vin date de la colonisation romaine puis connu un nouvel essor à partir du XIIIe siècle  avec les moines cisterciens.
 </t>
